--- a/biology/Zoologie/Alexandresaurus_camacan/Alexandresaurus_camacan.xlsx
+++ b/biology/Zoologie/Alexandresaurus_camacan/Alexandresaurus_camacan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexandresaurus camacan, unique représentant du genre Alexandresaurus, est une espèce de sauriens de la famille des Gymnophthalmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexandresaurus camacan, unique représentant du genre Alexandresaurus, est une espèce de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'État de Bahia au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'État de Bahia au Brésil.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandresaurus camacan mesure jusqu'à 70 mm, queue non comprise. C'est une espèce diurne ovipare dont les membres sont petits voire atrophiés.
 </t>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été nommé en l'honneur du naturaliste brésilien Alexandre Rodrigues Ferreira (1756-1815). Le nom spécifique, camacan, a été choisi en hommage à des indiens disparus les Camacans [1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été nommé en l'honneur du naturaliste brésilien Alexandre Rodrigues Ferreira (1756-1815). Le nom spécifique, camacan, a été choisi en hommage à des indiens disparus les Camacans .
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rodrigues, Pellegrino, Dixo, Verdade, Pavan, Suzart Argôlo, &amp; Sites, 2007 : A new genus of microteiid lizard from the Atlantic forests of State of Bahia, Brazil, with a new generic name for Colobosaura mentalis, and a discussion of relationships among the Heterodactylini (Squamata, Gymnophthalmidae). American Museum novitates, no 3565, p. 1-27 (texte intégral).</t>
         </is>
